--- a/gas_phase_cl_ccsd.xlsx
+++ b/gas_phase_cl_ccsd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF339E-9DD6-7444-8B3A-659E15AAFE06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68338E-AD34-014B-B411-9179F0F201B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="560" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="1020" yWindow="560" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="B4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,427 +418,427 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D5">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F5">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H5">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J5">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D6">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F6">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H6">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J6">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D7">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F7">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H7">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J7">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D8">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F8">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H8">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J8">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D9">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F9">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H9">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J9">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D10">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F10">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H10">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J10">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D11">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F11">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H11">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J11">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D12">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F12">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H12">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J12">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D13">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F13">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H13">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J13">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D14">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F14">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H14">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J14">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D15">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F15">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H15">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J15">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D16">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F16">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H16">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J16">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D17">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F17">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H17">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J17">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D18">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F18">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H18">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J18">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D19">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F19">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H19">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J19">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D20">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F20">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H20">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J20">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D21">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F21">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H21">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J21">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D22">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F22">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H22">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J22">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D23">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F23">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H23">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J23">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D24">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F24">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H24">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J24">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D25">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F25">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H25">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J25">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D26">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F26">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H26">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J26">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D27">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F27">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H27">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J27">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>2824.9267199999999</v>
+        <v>2824.93</v>
       </c>
       <c r="D28">
-        <v>270.32912010000001</v>
+        <v>270.33</v>
       </c>
       <c r="F28">
-        <v>198.97206829999999</v>
+        <v>198.97</v>
       </c>
       <c r="H28">
-        <v>199.8198792</v>
+        <v>199.82</v>
       </c>
       <c r="J28">
-        <v>198.1242575</v>
+        <v>198.12</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>2824.9267199999999</v>
+        <v>2824.92</v>
       </c>
       <c r="D29">
-        <v>270.32912010000001</v>
+        <v>270.32</v>
       </c>
       <c r="F29">
-        <v>198.97206829999999</v>
+        <v>198.96</v>
       </c>
       <c r="H29">
-        <v>199.8198792</v>
+        <v>199.81</v>
       </c>
       <c r="J29">
-        <v>198.1242575</v>
+        <v>198.11</v>
       </c>
     </row>
   </sheetData>

--- a/gas_phase_cl_ccsd.xlsx
+++ b/gas_phase_cl_ccsd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68338E-AD34-014B-B411-9179F0F201B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7BF85-A707-D548-B530-5D474B8AB7B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="560" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,453 +391,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
-  <dimension ref="B4:J29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2824.93</v>
+      </c>
       <c r="B5">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C5">
+        <v>198.97</v>
       </c>
       <c r="D5">
-        <v>270.33</v>
-      </c>
-      <c r="F5">
-        <v>198.97</v>
-      </c>
-      <c r="H5">
-        <v>199.82</v>
-      </c>
-      <c r="J5">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E5">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2824.93</v>
+      </c>
       <c r="B6">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C6">
+        <v>198.97</v>
       </c>
       <c r="D6">
-        <v>270.33</v>
-      </c>
-      <c r="F6">
-        <v>198.97</v>
-      </c>
-      <c r="H6">
-        <v>199.82</v>
-      </c>
-      <c r="J6">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E6">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2824.93</v>
+      </c>
       <c r="B7">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C7">
+        <v>198.97</v>
       </c>
       <c r="D7">
-        <v>270.33</v>
-      </c>
-      <c r="F7">
-        <v>198.97</v>
-      </c>
-      <c r="H7">
-        <v>199.82</v>
-      </c>
-      <c r="J7">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E7">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2824.93</v>
+      </c>
       <c r="B8">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C8">
+        <v>198.97</v>
       </c>
       <c r="D8">
-        <v>270.33</v>
-      </c>
-      <c r="F8">
-        <v>198.97</v>
-      </c>
-      <c r="H8">
-        <v>199.82</v>
-      </c>
-      <c r="J8">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E8">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2824.93</v>
+      </c>
       <c r="B9">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C9">
+        <v>198.97</v>
       </c>
       <c r="D9">
-        <v>270.33</v>
-      </c>
-      <c r="F9">
-        <v>198.97</v>
-      </c>
-      <c r="H9">
-        <v>199.82</v>
-      </c>
-      <c r="J9">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E9">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2824.93</v>
+      </c>
       <c r="B10">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C10">
+        <v>198.97</v>
       </c>
       <c r="D10">
-        <v>270.33</v>
-      </c>
-      <c r="F10">
-        <v>198.97</v>
-      </c>
-      <c r="H10">
-        <v>199.82</v>
-      </c>
-      <c r="J10">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E10">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2824.93</v>
+      </c>
       <c r="B11">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C11">
+        <v>198.97</v>
       </c>
       <c r="D11">
-        <v>270.33</v>
-      </c>
-      <c r="F11">
-        <v>198.97</v>
-      </c>
-      <c r="H11">
-        <v>199.82</v>
-      </c>
-      <c r="J11">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E11">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2824.93</v>
+      </c>
       <c r="B12">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C12">
+        <v>198.97</v>
       </c>
       <c r="D12">
-        <v>270.33</v>
-      </c>
-      <c r="F12">
-        <v>198.97</v>
-      </c>
-      <c r="H12">
-        <v>199.82</v>
-      </c>
-      <c r="J12">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E12">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2824.93</v>
+      </c>
       <c r="B13">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C13">
+        <v>198.97</v>
       </c>
       <c r="D13">
-        <v>270.33</v>
-      </c>
-      <c r="F13">
-        <v>198.97</v>
-      </c>
-      <c r="H13">
-        <v>199.82</v>
-      </c>
-      <c r="J13">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E13">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2824.93</v>
+      </c>
       <c r="B14">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C14">
+        <v>198.97</v>
       </c>
       <c r="D14">
-        <v>270.33</v>
-      </c>
-      <c r="F14">
-        <v>198.97</v>
-      </c>
-      <c r="H14">
-        <v>199.82</v>
-      </c>
-      <c r="J14">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E14">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2824.93</v>
+      </c>
       <c r="B15">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C15">
+        <v>198.97</v>
       </c>
       <c r="D15">
-        <v>270.33</v>
-      </c>
-      <c r="F15">
-        <v>198.97</v>
-      </c>
-      <c r="H15">
-        <v>199.82</v>
-      </c>
-      <c r="J15">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E15">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2824.93</v>
+      </c>
       <c r="B16">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C16">
+        <v>198.97</v>
       </c>
       <c r="D16">
-        <v>270.33</v>
-      </c>
-      <c r="F16">
-        <v>198.97</v>
-      </c>
-      <c r="H16">
-        <v>199.82</v>
-      </c>
-      <c r="J16">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E16">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2824.93</v>
+      </c>
       <c r="B17">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C17">
+        <v>198.97</v>
       </c>
       <c r="D17">
-        <v>270.33</v>
-      </c>
-      <c r="F17">
-        <v>198.97</v>
-      </c>
-      <c r="H17">
-        <v>199.82</v>
-      </c>
-      <c r="J17">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E17">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2824.93</v>
+      </c>
       <c r="B18">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C18">
+        <v>198.97</v>
       </c>
       <c r="D18">
-        <v>270.33</v>
-      </c>
-      <c r="F18">
-        <v>198.97</v>
-      </c>
-      <c r="H18">
-        <v>199.82</v>
-      </c>
-      <c r="J18">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E18">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2824.93</v>
+      </c>
       <c r="B19">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C19">
+        <v>198.97</v>
       </c>
       <c r="D19">
-        <v>270.33</v>
-      </c>
-      <c r="F19">
-        <v>198.97</v>
-      </c>
-      <c r="H19">
-        <v>199.82</v>
-      </c>
-      <c r="J19">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E19">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2824.93</v>
+      </c>
       <c r="B20">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C20">
+        <v>198.97</v>
       </c>
       <c r="D20">
-        <v>270.33</v>
-      </c>
-      <c r="F20">
-        <v>198.97</v>
-      </c>
-      <c r="H20">
-        <v>199.82</v>
-      </c>
-      <c r="J20">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E20">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2824.93</v>
+      </c>
       <c r="B21">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C21">
+        <v>198.97</v>
       </c>
       <c r="D21">
-        <v>270.33</v>
-      </c>
-      <c r="F21">
-        <v>198.97</v>
-      </c>
-      <c r="H21">
-        <v>199.82</v>
-      </c>
-      <c r="J21">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E21">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2824.93</v>
+      </c>
       <c r="B22">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C22">
+        <v>198.97</v>
       </c>
       <c r="D22">
-        <v>270.33</v>
-      </c>
-      <c r="F22">
-        <v>198.97</v>
-      </c>
-      <c r="H22">
-        <v>199.82</v>
-      </c>
-      <c r="J22">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E22">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2824.93</v>
+      </c>
       <c r="B23">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C23">
+        <v>198.97</v>
       </c>
       <c r="D23">
-        <v>270.33</v>
-      </c>
-      <c r="F23">
-        <v>198.97</v>
-      </c>
-      <c r="H23">
-        <v>199.82</v>
-      </c>
-      <c r="J23">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E23">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2824.93</v>
+      </c>
       <c r="B24">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C24">
+        <v>198.97</v>
       </c>
       <c r="D24">
-        <v>270.33</v>
-      </c>
-      <c r="F24">
-        <v>198.97</v>
-      </c>
-      <c r="H24">
-        <v>199.82</v>
-      </c>
-      <c r="J24">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E24">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2824.93</v>
+      </c>
       <c r="B25">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C25">
+        <v>198.97</v>
       </c>
       <c r="D25">
-        <v>270.33</v>
-      </c>
-      <c r="F25">
-        <v>198.97</v>
-      </c>
-      <c r="H25">
-        <v>199.82</v>
-      </c>
-      <c r="J25">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E25">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2824.93</v>
+      </c>
       <c r="B26">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C26">
+        <v>198.97</v>
       </c>
       <c r="D26">
-        <v>270.33</v>
-      </c>
-      <c r="F26">
-        <v>198.97</v>
-      </c>
-      <c r="H26">
-        <v>199.82</v>
-      </c>
-      <c r="J26">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E26">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2824.93</v>
+      </c>
       <c r="B27">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C27">
+        <v>198.97</v>
       </c>
       <c r="D27">
-        <v>270.33</v>
-      </c>
-      <c r="F27">
-        <v>198.97</v>
-      </c>
-      <c r="H27">
-        <v>199.82</v>
-      </c>
-      <c r="J27">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E27">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2824.93</v>
+      </c>
       <c r="B28">
-        <v>2824.93</v>
+        <v>270.33</v>
+      </c>
+      <c r="C28">
+        <v>198.97</v>
       </c>
       <c r="D28">
-        <v>270.33</v>
-      </c>
-      <c r="F28">
-        <v>198.97</v>
-      </c>
-      <c r="H28">
-        <v>199.82</v>
-      </c>
-      <c r="J28">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199.82</v>
+      </c>
+      <c r="E28">
+        <v>198.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2824.92</v>
+      </c>
       <c r="B29">
-        <v>2824.92</v>
+        <v>270.32</v>
+      </c>
+      <c r="C29">
+        <v>198.96</v>
       </c>
       <c r="D29">
-        <v>270.32</v>
-      </c>
-      <c r="F29">
-        <v>198.96</v>
-      </c>
-      <c r="H29">
         <v>199.81</v>
       </c>
-      <c r="J29">
+      <c r="E29">
         <v>198.11</v>
       </c>
     </row>

--- a/gas_phase_cl_ccsd.xlsx
+++ b/gas_phase_cl_ccsd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7BF85-A707-D548-B530-5D474B8AB7B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C217D9-B72F-9D4B-82F4-78AA8702C270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="18160" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Gasphase_1s_cl_acv3z_x2camf</t>
   </si>
@@ -41,15 +41,67 @@
   <si>
     <t>Gasphase_p32_cl_acv3z_x2camf</t>
   </si>
+  <si>
+    <t>Gasphase_1s_cl_d_aug_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>Gasphase_1s_cl_d_aug_acv3z_dc</t>
+  </si>
+  <si>
+    <t>Gasphase_2s_cl_d_aug_acv3z_dc</t>
+  </si>
+  <si>
+    <t>Gasphase_p_cl_d_aug_acv3z_dc</t>
+  </si>
+  <si>
+    <t>Gasphase_p12_cl_d_aug_acv3z_dc</t>
+  </si>
+  <si>
+    <t>Gasphase_p32_cl_d_aug_acv3z_dc</t>
+  </si>
+  <si>
+    <t>Gasphase_2s_cl_d_aug_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>Gasphase_2p12_cl_d_aug_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>Gasphase_2p32_cl_d_aug_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>Gasphase_2p_cl_d_aug_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>eomip_cl_bare_CVS_daug-acv3z_x2cmmf_gaunt_1s</t>
+  </si>
+  <si>
+    <t>eomip_cl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2s</t>
+  </si>
+  <si>
+    <t>eomip_cl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p12</t>
+  </si>
+  <si>
+    <t>eomip_cl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p32</t>
+  </si>
+  <si>
+    <t>eomip_cl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
-  <dimension ref="A4:E29"/>
+  <dimension ref="A4:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -407,16 +460,61 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2824.93</v>
       </c>
@@ -424,16 +522,61 @@
         <v>270.33</v>
       </c>
       <c r="C5">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D5">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E5">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F5">
+        <v>2824.932871</v>
+      </c>
+      <c r="G5">
+        <v>270.3357987</v>
+      </c>
+      <c r="H5">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I5">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J5">
+        <v>198.9776057</v>
+      </c>
+      <c r="K5">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L5">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M5">
+        <v>199.84099839999999</v>
+      </c>
+      <c r="N5">
+        <v>198.148459</v>
+      </c>
+      <c r="O5">
+        <v>198.9947287</v>
+      </c>
+      <c r="P5">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q5">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R5">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S5">
+        <v>198.0558317</v>
+      </c>
+      <c r="T5">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2824.93</v>
       </c>
@@ -441,16 +584,61 @@
         <v>270.33</v>
       </c>
       <c r="C6">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D6">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E6">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F6">
+        <v>2824.932871</v>
+      </c>
+      <c r="G6">
+        <v>270.3357987</v>
+      </c>
+      <c r="H6">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I6">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J6">
+        <v>198.9776057</v>
+      </c>
+      <c r="K6">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L6">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M6">
+        <v>199.84099839999999</v>
+      </c>
+      <c r="N6">
+        <v>198.148459</v>
+      </c>
+      <c r="O6">
+        <v>198.9947287</v>
+      </c>
+      <c r="P6">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q6">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R6">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S6">
+        <v>198.0558317</v>
+      </c>
+      <c r="T6">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2824.93</v>
       </c>
@@ -458,16 +646,61 @@
         <v>270.33</v>
       </c>
       <c r="C7">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D7">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E7">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F7">
+        <v>2824.932871</v>
+      </c>
+      <c r="G7">
+        <v>270.3357987</v>
+      </c>
+      <c r="H7">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I7">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J7">
+        <v>198.9776057</v>
+      </c>
+      <c r="K7">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L7">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M7">
+        <v>199.84099839999999</v>
+      </c>
+      <c r="N7">
+        <v>198.148459</v>
+      </c>
+      <c r="O7">
+        <v>198.9947287</v>
+      </c>
+      <c r="P7">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q7">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R7">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S7">
+        <v>198.0558317</v>
+      </c>
+      <c r="T7">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2824.93</v>
       </c>
@@ -475,16 +708,61 @@
         <v>270.33</v>
       </c>
       <c r="C8">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D8">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E8">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F8">
+        <v>2824.932871</v>
+      </c>
+      <c r="G8">
+        <v>270.3357987</v>
+      </c>
+      <c r="H8">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I8">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J8">
+        <v>198.9776057</v>
+      </c>
+      <c r="K8">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L8">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M8">
+        <v>199.8409987</v>
+      </c>
+      <c r="N8">
+        <v>198.148459</v>
+      </c>
+      <c r="O8">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P8">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q8">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R8">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S8">
+        <v>198.0558317</v>
+      </c>
+      <c r="T8">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2824.93</v>
       </c>
@@ -492,16 +770,61 @@
         <v>270.33</v>
       </c>
       <c r="C9">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D9">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E9">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F9">
+        <v>2824.932871</v>
+      </c>
+      <c r="G9">
+        <v>270.3357987</v>
+      </c>
+      <c r="H9">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I9">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J9">
+        <v>198.9776057</v>
+      </c>
+      <c r="K9">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L9">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M9">
+        <v>199.8409987</v>
+      </c>
+      <c r="N9">
+        <v>198.148459</v>
+      </c>
+      <c r="O9">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P9">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q9">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R9">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S9">
+        <v>198.0558317</v>
+      </c>
+      <c r="T9">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2824.93</v>
       </c>
@@ -509,16 +832,61 @@
         <v>270.33</v>
       </c>
       <c r="C10">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D10">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E10">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F10">
+        <v>2824.932871</v>
+      </c>
+      <c r="G10">
+        <v>270.3357987</v>
+      </c>
+      <c r="H10">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I10">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J10">
+        <v>198.9776057</v>
+      </c>
+      <c r="K10">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L10">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M10">
+        <v>199.8409987</v>
+      </c>
+      <c r="N10">
+        <v>198.148459</v>
+      </c>
+      <c r="O10">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P10">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q10">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R10">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S10">
+        <v>198.0558317</v>
+      </c>
+      <c r="T10">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2824.93</v>
       </c>
@@ -526,16 +894,61 @@
         <v>270.33</v>
       </c>
       <c r="C11">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D11">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E11">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F11">
+        <v>2824.932871</v>
+      </c>
+      <c r="G11">
+        <v>270.3357987</v>
+      </c>
+      <c r="H11">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I11">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J11">
+        <v>198.9776057</v>
+      </c>
+      <c r="K11">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L11">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M11">
+        <v>199.8409987</v>
+      </c>
+      <c r="N11">
+        <v>198.148459</v>
+      </c>
+      <c r="O11">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P11">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q11">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R11">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S11">
+        <v>198.0558317</v>
+      </c>
+      <c r="T11">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2824.93</v>
       </c>
@@ -543,16 +956,61 @@
         <v>270.33</v>
       </c>
       <c r="C12">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D12">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E12">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F12">
+        <v>2824.932871</v>
+      </c>
+      <c r="G12">
+        <v>270.3357987</v>
+      </c>
+      <c r="H12">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I12">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J12">
+        <v>198.9776057</v>
+      </c>
+      <c r="K12">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L12">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M12">
+        <v>199.8409987</v>
+      </c>
+      <c r="N12">
+        <v>198.148459</v>
+      </c>
+      <c r="O12">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P12">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q12">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R12">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S12">
+        <v>198.0558317</v>
+      </c>
+      <c r="T12">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2824.93</v>
       </c>
@@ -560,16 +1018,61 @@
         <v>270.33</v>
       </c>
       <c r="C13">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D13">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E13">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F13">
+        <v>2824.932871</v>
+      </c>
+      <c r="G13">
+        <v>270.3357987</v>
+      </c>
+      <c r="H13">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I13">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J13">
+        <v>198.9776057</v>
+      </c>
+      <c r="K13">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L13">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M13">
+        <v>199.8409987</v>
+      </c>
+      <c r="N13">
+        <v>198.148459</v>
+      </c>
+      <c r="O13">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P13">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q13">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R13">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S13">
+        <v>198.0558317</v>
+      </c>
+      <c r="T13">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2824.93</v>
       </c>
@@ -577,16 +1080,61 @@
         <v>270.33</v>
       </c>
       <c r="C14">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D14">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E14">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F14">
+        <v>2824.932871</v>
+      </c>
+      <c r="G14">
+        <v>270.3357987</v>
+      </c>
+      <c r="H14">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I14">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J14">
+        <v>198.9776057</v>
+      </c>
+      <c r="K14">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L14">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M14">
+        <v>199.8409987</v>
+      </c>
+      <c r="N14">
+        <v>198.148459</v>
+      </c>
+      <c r="O14">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P14">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q14">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R14">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S14">
+        <v>198.0558317</v>
+      </c>
+      <c r="T14">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2824.93</v>
       </c>
@@ -594,16 +1142,61 @@
         <v>270.33</v>
       </c>
       <c r="C15">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D15">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E15">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F15">
+        <v>2824.932871</v>
+      </c>
+      <c r="G15">
+        <v>270.3357987</v>
+      </c>
+      <c r="H15">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I15">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J15">
+        <v>198.9776057</v>
+      </c>
+      <c r="K15">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L15">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M15">
+        <v>199.8409987</v>
+      </c>
+      <c r="N15">
+        <v>198.148459</v>
+      </c>
+      <c r="O15">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P15">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q15">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R15">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S15">
+        <v>198.0558317</v>
+      </c>
+      <c r="T15">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2824.93</v>
       </c>
@@ -611,16 +1204,61 @@
         <v>270.33</v>
       </c>
       <c r="C16">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D16">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E16">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F16">
+        <v>2824.932871</v>
+      </c>
+      <c r="G16">
+        <v>270.3357987</v>
+      </c>
+      <c r="H16">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I16">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J16">
+        <v>198.9776057</v>
+      </c>
+      <c r="K16">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L16">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M16">
+        <v>199.8409987</v>
+      </c>
+      <c r="N16">
+        <v>198.148459</v>
+      </c>
+      <c r="O16">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P16">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q16">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R16">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S16">
+        <v>198.0558317</v>
+      </c>
+      <c r="T16">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2824.93</v>
       </c>
@@ -628,16 +1266,61 @@
         <v>270.33</v>
       </c>
       <c r="C17">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D17">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E17">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F17">
+        <v>2824.932871</v>
+      </c>
+      <c r="G17">
+        <v>270.3357987</v>
+      </c>
+      <c r="H17">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I17">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J17">
+        <v>198.9776057</v>
+      </c>
+      <c r="K17">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L17">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M17">
+        <v>199.8409987</v>
+      </c>
+      <c r="N17">
+        <v>198.148459</v>
+      </c>
+      <c r="O17">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P17">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q17">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R17">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S17">
+        <v>198.0558317</v>
+      </c>
+      <c r="T17">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2824.93</v>
       </c>
@@ -645,16 +1328,61 @@
         <v>270.33</v>
       </c>
       <c r="C18">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D18">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E18">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F18">
+        <v>2824.932871</v>
+      </c>
+      <c r="G18">
+        <v>270.3357987</v>
+      </c>
+      <c r="H18">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I18">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J18">
+        <v>198.9776057</v>
+      </c>
+      <c r="K18">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L18">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M18">
+        <v>199.8409987</v>
+      </c>
+      <c r="N18">
+        <v>198.148459</v>
+      </c>
+      <c r="O18">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P18">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q18">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R18">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S18">
+        <v>198.0558317</v>
+      </c>
+      <c r="T18">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2824.93</v>
       </c>
@@ -662,16 +1390,61 @@
         <v>270.33</v>
       </c>
       <c r="C19">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D19">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E19">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F19">
+        <v>2824.932871</v>
+      </c>
+      <c r="G19">
+        <v>270.3357987</v>
+      </c>
+      <c r="H19">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I19">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J19">
+        <v>198.9776057</v>
+      </c>
+      <c r="K19">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L19">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M19">
+        <v>199.8409987</v>
+      </c>
+      <c r="N19">
+        <v>198.148459</v>
+      </c>
+      <c r="O19">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P19">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q19">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R19">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S19">
+        <v>198.0558317</v>
+      </c>
+      <c r="T19">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2824.93</v>
       </c>
@@ -679,16 +1452,61 @@
         <v>270.33</v>
       </c>
       <c r="C20">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D20">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E20">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F20">
+        <v>2824.932871</v>
+      </c>
+      <c r="G20">
+        <v>270.3357987</v>
+      </c>
+      <c r="H20">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I20">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J20">
+        <v>198.9776057</v>
+      </c>
+      <c r="K20">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L20">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M20">
+        <v>199.8409987</v>
+      </c>
+      <c r="N20">
+        <v>198.148459</v>
+      </c>
+      <c r="O20">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P20">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q20">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R20">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S20">
+        <v>198.0558317</v>
+      </c>
+      <c r="T20">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2824.93</v>
       </c>
@@ -696,16 +1514,61 @@
         <v>270.33</v>
       </c>
       <c r="C21">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D21">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E21">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F21">
+        <v>2824.932871</v>
+      </c>
+      <c r="G21">
+        <v>270.3357987</v>
+      </c>
+      <c r="H21">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I21">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J21">
+        <v>198.9776057</v>
+      </c>
+      <c r="K21">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L21">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M21">
+        <v>199.8409987</v>
+      </c>
+      <c r="N21">
+        <v>198.148459</v>
+      </c>
+      <c r="O21">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P21">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q21">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R21">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S21">
+        <v>198.0558317</v>
+      </c>
+      <c r="T21">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2824.93</v>
       </c>
@@ -713,16 +1576,61 @@
         <v>270.33</v>
       </c>
       <c r="C22">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D22">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E22">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F22">
+        <v>2824.932871</v>
+      </c>
+      <c r="G22">
+        <v>270.3357987</v>
+      </c>
+      <c r="H22">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I22">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J22">
+        <v>198.9776057</v>
+      </c>
+      <c r="K22">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L22">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M22">
+        <v>199.8409987</v>
+      </c>
+      <c r="N22">
+        <v>198.148459</v>
+      </c>
+      <c r="O22">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P22">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q22">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R22">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S22">
+        <v>198.0558317</v>
+      </c>
+      <c r="T22">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2824.93</v>
       </c>
@@ -730,16 +1638,61 @@
         <v>270.33</v>
       </c>
       <c r="C23">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D23">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E23">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F23">
+        <v>2824.932871</v>
+      </c>
+      <c r="G23">
+        <v>270.3357987</v>
+      </c>
+      <c r="H23">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I23">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J23">
+        <v>198.9776057</v>
+      </c>
+      <c r="K23">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L23">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M23">
+        <v>199.8409987</v>
+      </c>
+      <c r="N23">
+        <v>198.148459</v>
+      </c>
+      <c r="O23">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P23">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q23">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R23">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S23">
+        <v>198.0558317</v>
+      </c>
+      <c r="T23">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2824.93</v>
       </c>
@@ -747,16 +1700,61 @@
         <v>270.33</v>
       </c>
       <c r="C24">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D24">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E24">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F24">
+        <v>2824.932871</v>
+      </c>
+      <c r="G24">
+        <v>270.3357987</v>
+      </c>
+      <c r="H24">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I24">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J24">
+        <v>198.9776057</v>
+      </c>
+      <c r="K24">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L24">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M24">
+        <v>199.8409987</v>
+      </c>
+      <c r="N24">
+        <v>198.148459</v>
+      </c>
+      <c r="O24">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P24">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q24">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R24">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S24">
+        <v>198.0558317</v>
+      </c>
+      <c r="T24">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2824.93</v>
       </c>
@@ -764,16 +1762,61 @@
         <v>270.33</v>
       </c>
       <c r="C25">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D25">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E25">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F25">
+        <v>2824.932871</v>
+      </c>
+      <c r="G25">
+        <v>270.3357987</v>
+      </c>
+      <c r="H25">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I25">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J25">
+        <v>198.9776057</v>
+      </c>
+      <c r="K25">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L25">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M25">
+        <v>199.8409987</v>
+      </c>
+      <c r="N25">
+        <v>198.148459</v>
+      </c>
+      <c r="O25">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P25">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q25">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R25">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S25">
+        <v>198.0558317</v>
+      </c>
+      <c r="T25">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2824.93</v>
       </c>
@@ -781,16 +1824,61 @@
         <v>270.33</v>
       </c>
       <c r="C26">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D26">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E26">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F26">
+        <v>2824.932871</v>
+      </c>
+      <c r="G26">
+        <v>270.3357987</v>
+      </c>
+      <c r="H26">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I26">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J26">
+        <v>198.9776057</v>
+      </c>
+      <c r="K26">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L26">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M26">
+        <v>199.8409987</v>
+      </c>
+      <c r="N26">
+        <v>198.148459</v>
+      </c>
+      <c r="O26">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P26">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q26">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R26">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S26">
+        <v>198.0558317</v>
+      </c>
+      <c r="T26">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2824.93</v>
       </c>
@@ -798,16 +1886,61 @@
         <v>270.33</v>
       </c>
       <c r="C27">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D27">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E27">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F27">
+        <v>2824.932871</v>
+      </c>
+      <c r="G27">
+        <v>270.3357987</v>
+      </c>
+      <c r="H27">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I27">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J27">
+        <v>198.9776057</v>
+      </c>
+      <c r="K27">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L27">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M27">
+        <v>199.8409987</v>
+      </c>
+      <c r="N27">
+        <v>198.148459</v>
+      </c>
+      <c r="O27">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P27">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q27">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R27">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S27">
+        <v>198.0558317</v>
+      </c>
+      <c r="T27">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2824.93</v>
       </c>
@@ -815,16 +1948,61 @@
         <v>270.33</v>
       </c>
       <c r="C28">
-        <v>198.97</v>
+        <v>199.82</v>
       </c>
       <c r="D28">
-        <v>199.82</v>
+        <v>198.12</v>
       </c>
       <c r="E28">
-        <v>198.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198.97</v>
+      </c>
+      <c r="F28">
+        <v>2824.932871</v>
+      </c>
+      <c r="G28">
+        <v>270.3357987</v>
+      </c>
+      <c r="H28">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I28">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J28">
+        <v>198.9776057</v>
+      </c>
+      <c r="K28">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L28">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M28">
+        <v>199.8409987</v>
+      </c>
+      <c r="N28">
+        <v>198.148459</v>
+      </c>
+      <c r="O28">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P28">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q28">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R28">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S28">
+        <v>198.0558317</v>
+      </c>
+      <c r="T28">
+        <v>198.86933970000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2824.92</v>
       </c>
@@ -832,13 +2010,58 @@
         <v>270.32</v>
       </c>
       <c r="C29">
+        <v>199.81</v>
+      </c>
+      <c r="D29">
+        <v>198.11</v>
+      </c>
+      <c r="E29">
         <v>198.96</v>
       </c>
-      <c r="D29">
-        <v>199.81</v>
-      </c>
-      <c r="E29">
-        <v>198.11</v>
+      <c r="F29">
+        <v>2824.932871</v>
+      </c>
+      <c r="G29">
+        <v>270.3357987</v>
+      </c>
+      <c r="H29">
+        <v>199.82541520000001</v>
+      </c>
+      <c r="I29">
+        <v>198.12979609999999</v>
+      </c>
+      <c r="J29">
+        <v>198.9776057</v>
+      </c>
+      <c r="K29">
+        <v>2825.7996370000001</v>
+      </c>
+      <c r="L29">
+        <v>270.39338859999998</v>
+      </c>
+      <c r="M29">
+        <v>199.8409987</v>
+      </c>
+      <c r="N29">
+        <v>198.148459</v>
+      </c>
+      <c r="O29">
+        <v>198.99472890000001</v>
+      </c>
+      <c r="P29">
+        <v>2823.8937120000001</v>
+      </c>
+      <c r="Q29">
+        <v>270.31786640000001</v>
+      </c>
+      <c r="R29">
+        <v>199.68284779999999</v>
+      </c>
+      <c r="S29">
+        <v>198.0558317</v>
+      </c>
+      <c r="T29">
+        <v>198.86933970000001</v>
       </c>
     </row>
   </sheetData>
